--- a/tests/TestUtils/TestFiles/TestWorkbook_Libre.xlsx
+++ b/tests/TestUtils/TestFiles/TestWorkbook_Libre.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
   <si>
     <t xml:space="preserve">Numbers</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t xml:space="preserve">DateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boolean</t>
   </si>
   <si>
     <t xml:space="preserve">ARCtrl Column</t>
@@ -64,9 +67,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="167" formatCode="d/m/yy\ h:mm;@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -100,49 +105,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FFA9D18E"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA9D18E"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFA9D18E"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FFA9D18E"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA9D18E"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin">
-        <color rgb="FFA9D18E"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFA9D18E"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFA9D18E"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -171,7 +139,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -184,19 +152,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -209,91 +169,33 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFA9D18E"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="MyOtherTable" displayName="MyOtherTable" ref="B4:F8" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="B4:F8"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="MyOtherTable" displayName="MyOtherTable" ref="B4:G8" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="B4:G8"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Numbers"/>
     <tableColumn id="2" name="Strings"/>
     <tableColumn id="3" name="DateTime"/>
-    <tableColumn id="4" name="ARCtrl Column"/>
-    <tableColumn id="5" name="ARCtrl Column "/>
+    <tableColumn id="4" name="Boolean"/>
+    <tableColumn id="5" name="ARCtrl Column"/>
+    <tableColumn id="6" name="ARCtrl Column "/>
   </tableColumns>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="MyTable" displayName="MyTable" ref="A1:E5" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:E5"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="MyTable" displayName="MyTable" ref="A1:F5" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:F5"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Numbers"/>
     <tableColumn id="2" name="Strings"/>
     <tableColumn id="3" name="DateTime"/>
-    <tableColumn id="4" name="ARCtrl Column"/>
-    <tableColumn id="5" name="ARCtrl Column "/>
+    <tableColumn id="4" name="Boolean"/>
+    <tableColumn id="5" name="ARCtrl Column"/>
+    <tableColumn id="6" name="ARCtrl Column "/>
   </tableColumns>
 </table>
 </file>
@@ -303,15 +205,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17"/>
   </cols>
@@ -332,22 +234,29 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>45213</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>6</v>
+      <c r="D2" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -355,13 +264,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>45214</v>
-      </c>
-      <c r="E3" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>45214.75</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -369,10 +282,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>45215</v>
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>45215.8333333333</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -380,10 +297,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>45216</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -405,13 +326,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.14"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -429,22 +354,29 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>45213</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>6</v>
+      <c r="D2" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -452,13 +384,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>45214</v>
-      </c>
-      <c r="E3" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>45214.75</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -466,28 +402,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>45215</v>
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>45215.8333333333</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="n">
+      <c r="B5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>45216</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -501,13 +443,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B4:F8"/>
+  <dimension ref="B4:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.28"/>
+  </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
@@ -525,22 +470,29 @@
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>45213</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>6</v>
+      <c r="E5" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -548,13 +500,17 @@
         <v>2</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>45214</v>
-      </c>
-      <c r="F6" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>45214.75</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -562,10 +518,14 @@
         <v>3</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>45215</v>
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>45215.8333333333</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -573,10 +533,14 @@
         <v>4</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>45216</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tests/TestUtils/TestFiles/TestWorkbook_Libre.xlsx
+++ b/tests/TestUtils/TestFiles/TestWorkbook_Libre.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WithTable" sheetId="1" state="visible" r:id="rId2"/>
@@ -70,8 +70,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="166" formatCode="General"/>
-    <numFmt numFmtId="167" formatCode="d/m/yy\ h:mm;@"/>
+    <numFmt numFmtId="166" formatCode="d/m/yy\ h:mm;@"/>
+    <numFmt numFmtId="167" formatCode="0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -208,7 +208,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -248,7 +248,7 @@
       <c r="C2" s="2" t="n">
         <v>45213</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -266,10 +266,10 @@
       <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="3" t="n">
         <v>45214.75</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -284,17 +284,17 @@
       <c r="B4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="3" t="n">
         <v>45215.8333333333</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
+      <c r="A5" s="4" t="n">
+        <v>4.269</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>12</v>
@@ -302,7 +302,7 @@
       <c r="C5" s="2" t="n">
         <v>45216</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -328,8 +328,8 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -368,7 +368,7 @@
       <c r="C2" s="2" t="n">
         <v>45213</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -386,10 +386,10 @@
       <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="3" t="n">
         <v>45214.75</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -404,17 +404,17 @@
       <c r="B4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="3" t="n">
         <v>45215.8333333333</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
+      <c r="A5" s="4" t="n">
+        <v>4.269</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>12</v>
@@ -422,7 +422,7 @@
       <c r="C5" s="2" t="n">
         <v>45216</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -445,8 +445,8 @@
   </sheetPr>
   <dimension ref="B4:G8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -484,7 +484,7 @@
       <c r="D5" s="2" t="n">
         <v>45213</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -502,10 +502,10 @@
       <c r="C6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="3" t="n">
         <v>45214.75</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -520,17 +520,17 @@
       <c r="C7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="3" t="n">
         <v>45215.8333333333</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="0" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
-        <v>4</v>
+      <c r="B8" s="4" t="n">
+        <v>4.269</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>12</v>
@@ -538,7 +538,7 @@
       <c r="D8" s="2" t="n">
         <v>45216</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="0" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
